--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -511,7 +511,7 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>59</v>
@@ -526,7 +526,7 @@
         <v>61</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <v>77</v>
@@ -535,7 +535,7 @@
         <v>69</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -517,7 +517,7 @@
         <v>59</v>
       </c>
       <c r="F5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>69</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -511,13 +511,13 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>59</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>69</v>
@@ -532,7 +532,7 @@
         <v>77</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5">
         <v>79</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -555,10 +555,10 @@
         <v>84</v>
       </c>
       <c r="J6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -546,19 +546,19 @@
         <v>74</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -552,13 +552,13 @@
         <v>59</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>71</v>
@@ -555,7 +555,7 @@
         <v>88</v>
       </c>
       <c r="J6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>95</v>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -581,22 +581,22 @@
         <v>63</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>61</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <v>66</v>

--- a/各月份各月蓝球超均值情况_超55.xlsx
+++ b/各月份各月蓝球超均值情况_超55.xlsx
@@ -572,13 +572,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>63</v>
       </c>
       <c r="E7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>61</v>
@@ -593,13 +593,13 @@
         <v>61</v>
       </c>
       <c r="K7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13">
